--- a/Clustering/Output_Clusters_Asigned_To_Countries/kmeans_10_af_df_wind.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/kmeans_10_af_df_wind.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,28 +469,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.006302521008403364</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0084985835694051</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02404526166902405</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.02478667208451852</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01869158878504673</v>
+        <v>0.01186943620178042</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -503,31 +503,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0928571428571426</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.1417092768444125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03682719546742211</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03154399557277258</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.02155172413793103</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02263083451202263</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.03657049979683057</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009345794392523364</v>
+        <v>0.02670623145400593</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.003073140749846343</v>
       </c>
     </row>
     <row r="4">
@@ -537,31 +537,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01008403361344538</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.004626247869491115</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0113314447592068</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03043718871057004</v>
+        <v>0.007203667321545513</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01414427157001415</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008227848101265823</v>
+        <v>0.006095083299471759</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009345794392523364</v>
+        <v>0.01483679525222552</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0313460356484327</v>
       </c>
     </row>
     <row r="5">
@@ -571,31 +571,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0092436974789916</v>
+        <v>0.3361344537815129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.001217433649866082</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4362606232294611</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.2514367816091963</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1895332390381889</v>
+        <v>0.625</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.01137748882568062</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5046728971962616</v>
+        <v>0.3738872403560825</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5142857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -605,28 +605,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01680672268907563</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.01266130995860726</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0141643059490085</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001660210293303818</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03111739745403112</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.01625355546525804</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.01483679525222552</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.002921840759678598</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01051466519092419</v>
+        <v>0.04584151931892596</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -657,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04303797468354437</v>
+        <v>0.0008126777732629012</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.02888752304855562</v>
       </c>
     </row>
     <row r="8">
@@ -673,31 +673,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05672268907563011</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.03116630143657162</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05949008498583572</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1095738793580522</v>
+        <v>0.1473477406679767</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.06609195402298845</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05940594059405941</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1550632911392412</v>
+        <v>0.03860219422998781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03738317757009346</v>
+        <v>0.06231454005934716</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.1143208358942835</v>
       </c>
     </row>
     <row r="9">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.007061115169223281</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03099059214167131</v>
+        <v>0.09692206941715807</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08860759493670917</v>
+        <v>0.002844372206420154</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.07129686539643494</v>
       </c>
     </row>
     <row r="10">
@@ -741,31 +741,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002521008403361345</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0009739469198928658</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0028328611898017</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01051466519092419</v>
+        <v>0.07531106745252134</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005657708628005658</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0746835443037977</v>
+        <v>0.002438033319788704</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.01413644744929318</v>
       </c>
     </row>
     <row r="11">
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001660210293303818</v>
+        <v>0.01375245579567781</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01455696202531646</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.003073140749846343</v>
       </c>
     </row>
     <row r="12">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001260504201680672</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.0007304601899196494</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009961261759822912</v>
+        <v>0.02750491159135559</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02911392405063291</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.01352181929932391</v>
       </c>
     </row>
     <row r="13">
@@ -843,31 +843,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0046218487394958</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0254957507082153</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.03160919540229883</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0396039603960396</v>
+        <v>0.125</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.007720438845997562</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08411214953271028</v>
+        <v>0.02670623145400593</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -877,28 +877,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04249291784702551</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.1020114942528735</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1004243281471003</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.002438033319788704</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01869158878504673</v>
+        <v>0.02967359050445104</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -945,31 +945,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1247899159663862</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.04699293888483059</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07932011331444759</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1162147205312675</v>
+        <v>0.04846103470857887</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="G16" t="n">
-        <v>0.158415841584158</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0481012658227849</v>
+        <v>0.08573750507923616</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07476635514018691</v>
+        <v>0.07418397626112759</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.1020282728948982</v>
       </c>
     </row>
     <row r="17">
@@ -979,25 +979,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03823529411764699</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.0131482834185537</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0028328611898017</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004243281471004243</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.01747257212515239</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005534034311012728</v>
+        <v>0.01113294040602489</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01075949367088608</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.0006146281499692685</v>
       </c>
     </row>
     <row r="19">
@@ -1047,31 +1047,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1104815864022662</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.03304597701149423</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01697312588401697</v>
+        <v>0.125</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1214953271028037</v>
+        <v>0.09198813056379825</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1081,31 +1081,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1642857142857138</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.03944485025566093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0226628895184136</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01383508577753183</v>
+        <v>0.001964636542239686</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.02729885057471263</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04667609618104668</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002531645569620253</v>
+        <v>0.1036164160910202</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.01483679525222552</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.01044867854947757</v>
       </c>
     </row>
     <row r="21">
@@ -1115,31 +1115,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1126050420168064</v>
+        <v>0.04201680672268907</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.04358412466520558</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03399433427762041</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08411732152739358</v>
+        <v>0.01702685003274395</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.03304597701149423</v>
       </c>
       <c r="G21" t="n">
-        <v>0.057991513437058</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02025316455696203</v>
+        <v>0.05485574969524572</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06542056074766354</v>
+        <v>0.03560830860534124</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.08113091579594318</v>
       </c>
     </row>
     <row r="22">
@@ -1183,31 +1183,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1802521008403356</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.1190650109569038</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04532577903682721</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1837299391256228</v>
+        <v>0.01702685003274395</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.05459770114942524</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07496463932107492</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01962025316455696</v>
+        <v>0.05241771637545704</v>
       </c>
       <c r="I23" t="n">
-        <v>0.009345794392523364</v>
+        <v>0.03264094955489614</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.1032575291948367</v>
       </c>
     </row>
     <row r="24">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002213613724405091</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0189873417721519</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.002458512599877074</v>
       </c>
     </row>
     <row r="25">
@@ -1251,16 +1251,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009663865546218491</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.006817628439250064</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05368013281682353</v>
+        <v>0.003274394237066143</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.003164556962025316</v>
+        <v>0.002438033319788704</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.05285802089735698</v>
       </c>
     </row>
     <row r="26">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.0006548788474132286</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0006329113924050633</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.03536345776031432</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03417721518987343</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1353,16 +1353,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01512605042016807</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.01241782322863405</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04205866076369678</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1371,13 +1371,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0006329113924050633</v>
+        <v>0.0004063388866314506</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.03749231714812535</v>
       </c>
     </row>
     <row r="29">
@@ -1387,16 +1387,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0046218487394958</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.001947893839785732</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01217487548422801</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1405,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01962025316455696</v>
+        <v>0.001219016659894352</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.01413644744929318</v>
       </c>
     </row>
     <row r="30">
@@ -1421,31 +1421,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0046218487394958</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.002921840759678598</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01272827891532928</v>
+        <v>0.04780615586116564</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001414427157001414</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0462025316455697</v>
+        <v>0.002844372206420154</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.009834050399508297</v>
       </c>
     </row>
     <row r="31">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0008403361344537816</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.002191380569758948</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02324294410625348</v>
+        <v>0.04256712508185982</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04367088607594943</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.02397049784880147</v>
       </c>
     </row>
     <row r="32">
@@ -1489,31 +1489,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06092436974789901</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.03603603603603592</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0198300283286119</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1593801881571668</v>
+        <v>0.07334643091028163</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.02442528735632183</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04243281471004243</v>
+        <v>0.0625</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07721518987341797</v>
+        <v>0.02234863876472981</v>
       </c>
       <c r="I32" t="n">
-        <v>0.009345794392523364</v>
+        <v>0.01483679525222552</v>
       </c>
       <c r="J32" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.1567301782421628</v>
       </c>
     </row>
     <row r="33">
@@ -1523,31 +1523,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01176470588235295</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.007304601899196498</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04427227448810188</v>
+        <v>0.1656843483955468</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="G33" t="n">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1702531645569628</v>
+        <v>0.005688744412840309</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.05162876459741845</v>
       </c>
     </row>
     <row r="34">
@@ -1557,28 +1557,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.003361344537815127</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0028328611898017</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04809052333804809</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.01381552214546933</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.002967359050445104</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0005534034311012728</v>
+        <v>0.03994760969220691</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1609,183 +1609,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0386075949367089</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
+        <v>0.0006146281499692685</v>
       </c>
     </row>
   </sheetData>
